--- a/ocms/src/test/resources/TestData/OCMAgentRatingReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentRatingReport.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B5DB2-67D3-4251-9B7D-37AED5A60403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{5FCB000D-A9B1-4F0E-98C6-4B06D599C329}"/>
   </bookViews>
   <sheets>
-    <sheet name="Show" sheetId="1" r:id="rId1"/>
-    <sheet name="ShowDateRange" sheetId="2" r:id="rId2"/>
-    <sheet name="ShowInNewPage" sheetId="3" r:id="rId3"/>
-    <sheet name="ShowInNewPageDateRange" sheetId="4" r:id="rId4"/>
-    <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
-    <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="Queries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Report Channel</t>
   </si>
@@ -40,34 +44,40 @@
     <t>Report Type</t>
   </si>
   <si>
-    <t>Report Date</t>
-  </si>
-  <si>
-    <t>Single Date</t>
-  </si>
-  <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>End Date</t>
   </si>
   <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>OCM Agent Rating Report</t>
+  </si>
+  <si>
     <t>Date Range</t>
   </si>
   <si>
+    <t>22-07-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-07-2020 00:00:00</t>
+  </si>
+  <si>
     <t>Agent</t>
   </si>
   <si>
-    <t>OCM Agent Rating Report</t>
+    <t>select AgentID as [Agent ID], SessionId as [Session Id], CIF, Rating, RatingType as [Rating Type], 
+OtherData as [Other Data],format([dbo].[VARCHARTODATETIME]([Date] +[Time]),'dd/MM/yyyy') as [Date], 
+format([dbo].[VARCHARTODATETIME]([Date] +[Time]),'HH:mm:ss') as [Time] from AGT_Agent_Rating  
+WHERE  [Date] + [Time]&gt;= 'ReportBeforeDate' and [Date] + [Time]&lt;= 'ReportAfterDate';</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,9 +107,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,7 +152,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -146,7 +164,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -163,9 +181,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,14 +211,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -228,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,313 +431,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2119D913-2D3D-4D2C-A64A-9559CF5B1189}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
